--- a/Projects/CUBAU/Data/summary_kpis.xlsx
+++ b/Projects/CUBAU/Data/summary_kpis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>KPI</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Group B Entity Value</t>
   </si>
   <si>
-    <t>Kpi 1</t>
-  </si>
-  <si>
-    <t>Adjacency</t>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>CUB next to Furphy’s</t>
+  </si>
+  <si>
+    <t>Adjacency-toupdate</t>
   </si>
   <si>
     <t>all</t>
@@ -64,7 +67,7 @@
     <t>Furphy</t>
   </si>
   <si>
-    <t>Kpi 2</t>
+    <t>CORONA Fridges Block</t>
   </si>
   <si>
     <t>Block</t>
@@ -73,28 +76,31 @@
     <t>Fridges</t>
   </si>
   <si>
-    <t>Sub Brand</t>
-  </si>
-  <si>
-    <t>Ligera,CORONA EXTRA</t>
-  </si>
-  <si>
-    <t>Kpi 3</t>
+    <t>sub_brand_name</t>
+  </si>
+  <si>
+    <t>Corona Ligera,CORONA EXTRA</t>
+  </si>
+  <si>
+    <t>CORONA EXTRA</t>
+  </si>
+  <si>
+    <t>CORONA Stacks Block</t>
   </si>
   <si>
     <t>Cool Room Stacks Top,Cool Room Stacks Front</t>
   </si>
   <si>
-    <t>Kpi 4</t>
+    <t>MATILDA BAY Fridges Block</t>
   </si>
   <si>
     <t>MATILDA BAY</t>
   </si>
   <si>
-    <t>Kpi 5</t>
-  </si>
-  <si>
-    <t>Kpi 6</t>
+    <t>MATILDA BAY Stacks Block</t>
+  </si>
+  <si>
+    <t>MID STRENGTH Fridges Block</t>
   </si>
   <si>
     <t>sub_category</t>
@@ -103,7 +109,16 @@
     <t>MID STRENGTH</t>
   </si>
   <si>
-    <t>Kpi 7</t>
+    <t>MID STRENGTH Stacks Block</t>
+  </si>
+  <si>
+    <t>Brands next to Furphy’s</t>
+  </si>
+  <si>
+    <t>Brands next to James Squire Orchard Crush</t>
+  </si>
+  <si>
+    <t>Brands next to James Squire 150 LashesIron Jack</t>
   </si>
 </sst>
 </file>
@@ -118,6 +133,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -203,20 +219,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.2959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.6224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,130 +258,190 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>18</v>
+      <c r="H4" s="0" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CUBAU/Data/summary_kpis.xlsx
+++ b/Projects/CUBAU/Data/summary_kpis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>KPI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>KPI Type</t>
   </si>
   <si>
+    <t>store type</t>
+  </si>
+  <si>
     <t>display name</t>
   </si>
   <si>
@@ -37,10 +40,13 @@
     <t>Group A Entity Value</t>
   </si>
   <si>
-    <t>Group B Entity Type</t>
-  </si>
-  <si>
-    <t>Group B Entity Value</t>
+    <t>Anchor entity to return</t>
+  </si>
+  <si>
+    <t>Anchor entity</t>
+  </si>
+  <si>
+    <t>Anchor value</t>
   </si>
   <si>
     <t>Target</t>
@@ -49,10 +55,19 @@
     <t>CUB next to Furphy’s</t>
   </si>
   <si>
-    <t>Adjacency-toupdate</t>
-  </si>
-  <si>
-    <t>all</t>
+    <t>Adjacency</t>
+  </si>
+  <si>
+    <t>Off Premise</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>Furphy</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
   <si>
     <t>manufacturer_name</t>
@@ -61,12 +76,6 @@
     <t>CUB</t>
   </si>
   <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>Furphy</t>
-  </si>
-  <si>
     <t>CORONA Fridges Block</t>
   </si>
   <si>
@@ -82,9 +91,6 @@
     <t>Corona Ligera,CORONA EXTRA</t>
   </si>
   <si>
-    <t>CORONA EXTRA</t>
-  </si>
-  <si>
     <t>CORONA Stacks Block</t>
   </si>
   <si>
@@ -118,7 +124,31 @@
     <t>Brands next to James Squire Orchard Crush</t>
   </si>
   <si>
+    <t>James Squire The Constable Copper Ale</t>
+  </si>
+  <si>
     <t>Brands next to James Squire 150 LashesIron Jack</t>
+  </si>
+  <si>
+    <t>James Squire 150 Lashes Pale Ale</t>
+  </si>
+  <si>
+    <t>Are products located next to competitor in coolrooms stacks</t>
+  </si>
+  <si>
+    <t>Competitor Adjacency</t>
+  </si>
+  <si>
+    <t>Are products located next to competitor in fridges and coolroom shelves</t>
+  </si>
+  <si>
+    <t>Fridges,Cool Room Shelf</t>
+  </si>
+  <si>
+    <t>Great Northern Super Crisp &amp; XXXX Gold Block</t>
+  </si>
+  <si>
+    <t>Stella Artois &amp; Peroni Block</t>
   </si>
 </sst>
 </file>
@@ -193,8 +223,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,21 +253,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.6224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,187 +296,282 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.65</v>
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="F8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CUBAU/Data/summary_kpis.xlsx
+++ b/Projects/CUBAU/Data/summary_kpis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>KPI</t>
   </si>
@@ -28,25 +28,28 @@
     <t>KPI Type</t>
   </si>
   <si>
+    <t>Store additional attribute 1</t>
+  </si>
+  <si>
     <t>store type</t>
   </si>
   <si>
     <t>display name</t>
   </si>
   <si>
-    <t>Group A Entity Type</t>
-  </si>
-  <si>
-    <t>Group A Entity Value</t>
-  </si>
-  <si>
-    <t>Anchor entity to return</t>
-  </si>
-  <si>
-    <t>Anchor entity</t>
-  </si>
-  <si>
-    <t>Anchor value</t>
+    <t>Block Entity Type</t>
+  </si>
+  <si>
+    <t>Block Entity Value</t>
+  </si>
+  <si>
+    <t>Anchor Entity to return</t>
+  </si>
+  <si>
+    <t>Anchor Entity Type</t>
+  </si>
+  <si>
+    <t>Anchor Entity Value</t>
   </si>
   <si>
     <t>Target</t>
@@ -58,30 +61,30 @@
     <t>Adjacency</t>
   </si>
   <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>Furphy</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>manufacturer_name</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CORONA Fridges Block</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
     <t>Off Premise</t>
   </si>
   <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>Furphy</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>manufacturer_name</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>CORONA Fridges Block</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>Fridges</t>
   </si>
   <si>
@@ -121,34 +124,37 @@
     <t>Brands next to Furphy’s</t>
   </si>
   <si>
-    <t>Brands next to James Squire Orchard Crush</t>
-  </si>
-  <si>
-    <t>James Squire The Constable Copper Ale</t>
-  </si>
-  <si>
-    <t>Brands next to James Squire 150 LashesIron Jack</t>
+    <t>Brands next to James Squire 150 Lashes Pale Ale</t>
   </si>
   <si>
     <t>James Squire 150 Lashes Pale Ale</t>
   </si>
   <si>
-    <t>Are products located next to competitor in coolrooms stacks</t>
+    <t>Located next to competitor in coolrooms stacks in Dan Murphy’s and BWS Outlets</t>
   </si>
   <si>
     <t>Competitor Adjacency</t>
   </si>
   <si>
-    <t>Are products located next to competitor in fridges and coolroom shelves</t>
+    <t>WW BWS,WW DAN MURPHY</t>
+  </si>
+  <si>
+    <t>Located next to competitor in fridges and coolroom shelves in Dan Murphy’s and BWS Outlets</t>
   </si>
   <si>
     <t>Fridges,Cool Room Shelf</t>
   </si>
   <si>
-    <t>Great Northern Super Crisp &amp; XXXX Gold Block</t>
+    <t>Great Northern brewing co &amp; XXXX Gold Block</t>
+  </si>
+  <si>
+    <t>GREAT NORTHERN BREWING CO,XXXX Gold</t>
   </si>
   <si>
     <t>Stella Artois &amp; Peroni Block</t>
+  </si>
+  <si>
+    <t>STELLA ARTOIS,Peroni Leggera,Peroni Nastro Azzurro,Peroni Red</t>
   </si>
 </sst>
 </file>
@@ -223,12 +229,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,32 +255,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -293,39 +295,39 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -345,232 +347,230 @@
       <c r="F3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="G4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="G7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>29</v>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="G8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
+      <c r="H12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/Projects/CUBAU/Data/summary_kpis.xlsx
+++ b/Projects/CUBAU/Data/summary_kpis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -186,21 +186,41 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -229,12 +249,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,320 +293,382 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3316326530612"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/Projects/CUBAU/Data/summary_kpis.xlsx
+++ b/Projects/CUBAU/Data/summary_kpis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>KPI</t>
   </si>
@@ -103,7 +103,10 @@
     <t>MATILDA BAY Fridges Block</t>
   </si>
   <si>
-    <t>MATILDA BAY</t>
+    <t>att1</t>
+  </si>
+  <si>
+    <t>Matilda Bay</t>
   </si>
   <si>
     <t>MATILDA BAY Stacks Block</t>
@@ -122,6 +125,12 @@
   </si>
   <si>
     <t>Brands next to Furphy’s</t>
+  </si>
+  <si>
+    <t>Brands next to James Squire Orchard Crush</t>
+  </si>
+  <si>
+    <t>James Squire Orchard Crush</t>
   </si>
   <si>
     <t>Brands next to James Squire 150 Lashes Pale Ale</t>
@@ -291,21 +300,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,10 +446,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
@@ -447,9 +458,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
@@ -460,10 +471,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
@@ -474,7 +485,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
@@ -485,10 +496,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
@@ -499,7 +510,7 @@
     </row>
     <row r="8" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -510,10 +521,10 @@
         <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
@@ -524,7 +535,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -547,7 +558,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -559,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>13</v>
@@ -568,25 +579,21 @@
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>13</v>
@@ -595,19 +602,19 @@
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
@@ -622,34 +629,36 @@
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -663,12 +672,37 @@
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="n">
         <v>0.65</v>
       </c>
     </row>
